--- a/2012-7.xlsx
+++ b/2012-7.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="1440" yWindow="1560" windowWidth="18915" windowHeight="6510"/>
+    <workbookView xWindow="1920" yWindow="1770" windowWidth="16755" windowHeight="6795"/>
   </bookViews>
   <sheets>
     <sheet name="2012-7" sheetId="1" r:id="rId1"/>
@@ -197,7 +197,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2939" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2956" uniqueCount="56">
   <si>
     <t>10.0</t>
   </si>
@@ -250,6 +250,15 @@
     <t>5.0</t>
   </si>
   <si>
+    <t>03.июн</t>
+  </si>
+  <si>
+    <t>03.фев</t>
+  </si>
+  <si>
+    <t>04.авг</t>
+  </si>
+  <si>
     <t>8.0</t>
   </si>
   <si>
@@ -259,10 +268,25 @@
     <t>SHRA</t>
   </si>
   <si>
+    <t>03.июл</t>
+  </si>
+  <si>
+    <t>02.янв</t>
+  </si>
+  <si>
+    <t>02.сен</t>
+  </si>
+  <si>
     <t>RA</t>
   </si>
   <si>
+    <t>01.июл</t>
+  </si>
+  <si>
     <t>0.6</t>
+  </si>
+  <si>
+    <t>03.янв</t>
   </si>
   <si>
     <t>0.4</t>
@@ -283,7 +307,31 @@
     <t>0.8</t>
   </si>
   <si>
+    <t>02.май</t>
+  </si>
+  <si>
+    <t>02.мар</t>
+  </si>
+  <si>
+    <t>04.май</t>
+  </si>
+  <si>
     <t>0.9</t>
+  </si>
+  <si>
+    <t>01.янв</t>
+  </si>
+  <si>
+    <t>01.сен</t>
+  </si>
+  <si>
+    <t>02.фев</t>
+  </si>
+  <si>
+    <t>01.мар</t>
+  </si>
+  <si>
+    <t>03.апр</t>
   </si>
   <si>
     <t>Число месяца</t>
@@ -1188,37 +1236,37 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="B1" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="C1" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="D1" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="E1" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="F1" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="G1" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="H1" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="I1" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="J1" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="K1" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -11327,8 +11375,8 @@
       <c r="G430">
         <v>6</v>
       </c>
-      <c r="H430" s="2">
-        <v>41428</v>
+      <c r="H430" t="s">
+        <v>17</v>
       </c>
       <c r="J430">
         <v>1012</v>
@@ -11379,8 +11427,8 @@
       <c r="G432">
         <v>6</v>
       </c>
-      <c r="H432" s="2">
-        <v>41308</v>
+      <c r="H432" t="s">
+        <v>18</v>
       </c>
       <c r="J432">
         <v>1012</v>
@@ -11408,8 +11456,8 @@
       <c r="G433">
         <v>6</v>
       </c>
-      <c r="H433" s="2">
-        <v>41490</v>
+      <c r="H433" t="s">
+        <v>19</v>
       </c>
       <c r="J433">
         <v>1012</v>
@@ -11478,7 +11526,7 @@
         <v>6</v>
       </c>
       <c r="H436" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="J436">
         <v>1012</v>
@@ -12293,7 +12341,7 @@
         <v>5</v>
       </c>
       <c r="F467" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G467">
         <v>4</v>
@@ -12528,13 +12576,13 @@
         <v>3</v>
       </c>
       <c r="F475" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G475">
         <v>4</v>
       </c>
       <c r="H475" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="J475">
         <v>1015</v>
@@ -12560,7 +12608,7 @@
         <v>3</v>
       </c>
       <c r="F476" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G476">
         <v>4</v>
@@ -12621,7 +12669,7 @@
         <v>3</v>
       </c>
       <c r="F478" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G478">
         <v>4</v>
@@ -12685,7 +12733,7 @@
         <v>3</v>
       </c>
       <c r="F480" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G480">
         <v>4</v>
@@ -12717,7 +12765,7 @@
         <v>4</v>
       </c>
       <c r="F481" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G481">
         <v>4</v>
@@ -12922,8 +12970,8 @@
       <c r="G488">
         <v>6</v>
       </c>
-      <c r="H488" s="2">
-        <v>41458</v>
+      <c r="H488" t="s">
+        <v>23</v>
       </c>
       <c r="J488">
         <v>1015</v>
@@ -12951,8 +12999,8 @@
       <c r="G489">
         <v>4</v>
       </c>
-      <c r="H489" s="2">
-        <v>41276</v>
+      <c r="H489" t="s">
+        <v>24</v>
       </c>
       <c r="J489">
         <v>1015</v>
@@ -12983,8 +13031,8 @@
       <c r="G490">
         <v>4</v>
       </c>
-      <c r="H490" s="2">
-        <v>41519</v>
+      <c r="H490" t="s">
+        <v>25</v>
       </c>
       <c r="J490">
         <v>1015</v>
@@ -13964,7 +14012,7 @@
         <v>4</v>
       </c>
       <c r="F527" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G527">
         <v>6</v>
@@ -14245,7 +14293,7 @@
         <v>4</v>
       </c>
       <c r="H537" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="J537">
         <v>1012</v>
@@ -14502,7 +14550,7 @@
         <v>5</v>
       </c>
       <c r="F547" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G547">
         <v>6</v>
@@ -14534,7 +14582,7 @@
         <v>4</v>
       </c>
       <c r="F548" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G548">
         <v>6</v>
@@ -14566,7 +14614,7 @@
         <v>6</v>
       </c>
       <c r="F549" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G549">
         <v>6</v>
@@ -16325,7 +16373,7 @@
         <v>3</v>
       </c>
       <c r="F620" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G620">
         <v>4</v>
@@ -16444,7 +16492,7 @@
         <v>2</v>
       </c>
       <c r="F624" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G624">
         <v>6</v>
@@ -16505,7 +16553,7 @@
         <v>4</v>
       </c>
       <c r="F626" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G626">
         <v>6</v>
@@ -16537,13 +16585,13 @@
         <v>5</v>
       </c>
       <c r="F627" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G627">
         <v>6</v>
       </c>
       <c r="H627" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="J627">
         <v>1010</v>
@@ -16569,7 +16617,7 @@
         <v>5</v>
       </c>
       <c r="F628" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G628">
         <v>6</v>
@@ -16630,7 +16678,7 @@
         <v>3</v>
       </c>
       <c r="F630" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G630">
         <v>6</v>
@@ -16662,7 +16710,7 @@
         <v>4</v>
       </c>
       <c r="F631" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G631">
         <v>4</v>
@@ -17651,7 +17699,7 @@
         <v>3</v>
       </c>
       <c r="F668" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G668">
         <v>6</v>
@@ -17683,7 +17731,7 @@
         <v>3</v>
       </c>
       <c r="F669" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G669">
         <v>6</v>
@@ -17715,7 +17763,7 @@
         <v>2</v>
       </c>
       <c r="F670" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G670">
         <v>6</v>
@@ -17747,7 +17795,7 @@
         <v>2</v>
       </c>
       <c r="F671" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G671">
         <v>6</v>
@@ -17776,7 +17824,7 @@
         <v>0</v>
       </c>
       <c r="F672" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G672">
         <v>6</v>
@@ -17808,7 +17856,7 @@
         <v>4</v>
       </c>
       <c r="F673" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G673">
         <v>6</v>
@@ -17840,7 +17888,7 @@
         <v>4</v>
       </c>
       <c r="F674" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G674">
         <v>6</v>
@@ -17872,13 +17920,13 @@
         <v>3</v>
       </c>
       <c r="F675" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G675">
         <v>6</v>
       </c>
       <c r="H675" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="J675">
         <v>1012</v>
@@ -17904,7 +17952,7 @@
         <v>4</v>
       </c>
       <c r="F676" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G676">
         <v>6</v>
@@ -18112,7 +18160,7 @@
         <v>1</v>
       </c>
       <c r="F684" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G684">
         <v>4</v>
@@ -18141,7 +18189,7 @@
         <v>0</v>
       </c>
       <c r="F685" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G685">
         <v>4</v>
@@ -18888,7 +18936,7 @@
         <v>0</v>
       </c>
       <c r="F712" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G712">
         <v>4</v>
@@ -18917,7 +18965,7 @@
         <v>0</v>
       </c>
       <c r="F713" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G713">
         <v>4</v>
@@ -18978,7 +19026,7 @@
         <v>1</v>
       </c>
       <c r="F715" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G715">
         <v>4</v>
@@ -19010,7 +19058,7 @@
         <v>2</v>
       </c>
       <c r="F716" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G716">
         <v>6</v>
@@ -19042,7 +19090,7 @@
         <v>1</v>
       </c>
       <c r="F717" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G717">
         <v>6</v>
@@ -19074,7 +19122,7 @@
         <v>4</v>
       </c>
       <c r="F718" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G718">
         <v>6</v>
@@ -19106,7 +19154,7 @@
         <v>2</v>
       </c>
       <c r="F719" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G719">
         <v>6</v>
@@ -19138,7 +19186,7 @@
         <v>2</v>
       </c>
       <c r="F720" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G720">
         <v>6</v>
@@ -19167,7 +19215,7 @@
         <v>0</v>
       </c>
       <c r="F721" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G721">
         <v>6</v>
@@ -19199,7 +19247,7 @@
         <v>2</v>
       </c>
       <c r="F722" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G722">
         <v>4</v>
@@ -19929,7 +19977,7 @@
         <v>7</v>
       </c>
       <c r="F748" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G748">
         <v>4</v>
@@ -19961,7 +20009,7 @@
         <v>2</v>
       </c>
       <c r="F749" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G749">
         <v>4</v>
@@ -19993,7 +20041,7 @@
         <v>-3</v>
       </c>
       <c r="F750" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G750">
         <v>4</v>
@@ -20025,7 +20073,7 @@
         <v>2</v>
       </c>
       <c r="F751" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G751">
         <v>4</v>
@@ -21324,7 +21372,7 @@
         <v>5</v>
       </c>
       <c r="F799" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G799">
         <v>4</v>
@@ -21356,7 +21404,7 @@
         <v>3</v>
       </c>
       <c r="F800" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G800">
         <v>4</v>
@@ -21475,7 +21523,7 @@
         <v>3</v>
       </c>
       <c r="F804" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G804">
         <v>4</v>
@@ -22214,7 +22262,7 @@
         <v>3</v>
       </c>
       <c r="F830" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="G830">
         <v>8</v>
@@ -24093,7 +24141,7 @@
         <v>6</v>
       </c>
       <c r="F904" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G904">
         <v>4</v>
@@ -24125,13 +24173,13 @@
         <v>6</v>
       </c>
       <c r="F905" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G905">
         <v>4</v>
       </c>
       <c r="H905" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="J905">
         <v>1012</v>
@@ -24157,7 +24205,7 @@
         <v>5</v>
       </c>
       <c r="F906" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G906">
         <v>6</v>
@@ -24189,7 +24237,7 @@
         <v>6</v>
       </c>
       <c r="F907" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G907">
         <v>6</v>
@@ -24279,7 +24327,7 @@
         <v>5</v>
       </c>
       <c r="F910" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G910">
         <v>6</v>
@@ -24311,7 +24359,7 @@
         <v>6</v>
       </c>
       <c r="F911" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G911">
         <v>6</v>
@@ -24343,7 +24391,7 @@
         <v>5</v>
       </c>
       <c r="F912" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G912">
         <v>6</v>
@@ -24375,7 +24423,7 @@
         <v>4</v>
       </c>
       <c r="F913" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G913">
         <v>6</v>
@@ -24407,7 +24455,7 @@
         <v>4</v>
       </c>
       <c r="F914" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G914">
         <v>6</v>
@@ -24439,7 +24487,7 @@
         <v>3</v>
       </c>
       <c r="F915" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G915">
         <v>6</v>
@@ -25745,7 +25793,7 @@
         <v>2</v>
       </c>
       <c r="F968" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G968">
         <v>4</v>
@@ -25777,7 +25825,7 @@
         <v>1</v>
       </c>
       <c r="F969" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G969">
         <v>4</v>
@@ -25806,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="F970" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G970">
         <v>4</v>
@@ -25838,7 +25886,7 @@
         <v>3</v>
       </c>
       <c r="F971" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G971">
         <v>4</v>
@@ -25870,7 +25918,7 @@
         <v>4</v>
       </c>
       <c r="F972" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G972">
         <v>4</v>
@@ -25960,7 +26008,7 @@
         <v>3</v>
       </c>
       <c r="F975" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G975">
         <v>4</v>
@@ -25992,7 +26040,7 @@
         <v>3</v>
       </c>
       <c r="F976" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G976">
         <v>4</v>
@@ -26024,13 +26072,13 @@
         <v>3</v>
       </c>
       <c r="F977" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G977">
         <v>4</v>
       </c>
       <c r="H977" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="J977">
         <v>1016</v>
@@ -26056,7 +26104,7 @@
         <v>2</v>
       </c>
       <c r="F978" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G978">
         <v>4</v>
@@ -26088,7 +26136,7 @@
         <v>5</v>
       </c>
       <c r="F979" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G979">
         <v>4</v>
@@ -26120,7 +26168,7 @@
         <v>4</v>
       </c>
       <c r="F980" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G980">
         <v>6</v>
@@ -26152,7 +26200,7 @@
         <v>4</v>
       </c>
       <c r="F981" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G981">
         <v>6</v>
@@ -26184,7 +26232,7 @@
         <v>5</v>
       </c>
       <c r="F982" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G982">
         <v>6</v>
@@ -26216,7 +26264,7 @@
         <v>4</v>
       </c>
       <c r="F983" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G983">
         <v>6</v>
@@ -26248,7 +26296,7 @@
         <v>4</v>
       </c>
       <c r="F984" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G984">
         <v>6</v>
@@ -26280,7 +26328,7 @@
         <v>4</v>
       </c>
       <c r="F985" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G985">
         <v>6</v>
@@ -26312,7 +26360,7 @@
         <v>4</v>
       </c>
       <c r="F986" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G986">
         <v>6</v>
@@ -26344,7 +26392,7 @@
         <v>4</v>
       </c>
       <c r="F987" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G987">
         <v>6</v>
@@ -26376,7 +26424,7 @@
         <v>3</v>
       </c>
       <c r="F988" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G988">
         <v>6</v>
@@ -26408,7 +26456,7 @@
         <v>4</v>
       </c>
       <c r="F989" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G989">
         <v>6</v>
@@ -26643,7 +26691,7 @@
         <v>2</v>
       </c>
       <c r="F997" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G997">
         <v>6</v>
@@ -26704,7 +26752,7 @@
         <v>3</v>
       </c>
       <c r="F999" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G999">
         <v>6</v>
@@ -26736,7 +26784,7 @@
         <v>3</v>
       </c>
       <c r="F1000" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G1000">
         <v>6</v>
@@ -26884,7 +26932,7 @@
         <v>2</v>
       </c>
       <c r="F1005" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G1005">
         <v>4</v>
@@ -26916,7 +26964,7 @@
         <v>2</v>
       </c>
       <c r="F1006" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G1006">
         <v>4</v>
@@ -26948,7 +26996,7 @@
         <v>2</v>
       </c>
       <c r="F1007" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G1007">
         <v>4</v>
@@ -26980,13 +27028,13 @@
         <v>2</v>
       </c>
       <c r="F1008" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G1008">
         <v>4</v>
       </c>
       <c r="H1008" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="J1008">
         <v>1018</v>
@@ -27070,7 +27118,7 @@
         <v>2</v>
       </c>
       <c r="F1011" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G1011">
         <v>6</v>
@@ -27102,7 +27150,7 @@
         <v>2</v>
       </c>
       <c r="F1012" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G1012">
         <v>6</v>
@@ -27163,13 +27211,13 @@
         <v>1</v>
       </c>
       <c r="F1014" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G1014">
         <v>4</v>
       </c>
       <c r="H1014" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="J1014">
         <v>1019</v>
@@ -27192,7 +27240,7 @@
         <v>0</v>
       </c>
       <c r="F1015" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G1015">
         <v>4</v>
@@ -27380,7 +27428,7 @@
         <v>0</v>
       </c>
       <c r="F1022" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G1022">
         <v>4</v>
@@ -27435,7 +27483,7 @@
         <v>0</v>
       </c>
       <c r="F1024" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G1024">
         <v>4</v>
@@ -27467,7 +27515,7 @@
         <v>2</v>
       </c>
       <c r="F1025" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G1025">
         <v>4</v>
@@ -27499,7 +27547,7 @@
         <v>2</v>
       </c>
       <c r="F1026" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G1026">
         <v>4</v>
@@ -27531,7 +27579,7 @@
         <v>2</v>
       </c>
       <c r="F1027" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G1027">
         <v>6</v>
@@ -27563,7 +27611,7 @@
         <v>2</v>
       </c>
       <c r="F1028" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G1028">
         <v>6</v>
@@ -27595,7 +27643,7 @@
         <v>3</v>
       </c>
       <c r="F1029" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G1029">
         <v>6</v>
@@ -27627,7 +27675,7 @@
         <v>3</v>
       </c>
       <c r="F1030" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G1030">
         <v>6</v>
@@ -27659,7 +27707,7 @@
         <v>3</v>
       </c>
       <c r="F1031" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G1031">
         <v>6</v>
@@ -27691,13 +27739,13 @@
         <v>3</v>
       </c>
       <c r="F1032" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G1032">
         <v>6</v>
       </c>
       <c r="H1032" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="J1032">
         <v>1022</v>
@@ -27723,7 +27771,7 @@
         <v>2</v>
       </c>
       <c r="F1033" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G1033">
         <v>6</v>
@@ -27755,7 +27803,7 @@
         <v>3</v>
       </c>
       <c r="F1034" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G1034">
         <v>6</v>
@@ -27787,7 +27835,7 @@
         <v>3</v>
       </c>
       <c r="F1035" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G1035">
         <v>6</v>
@@ -27819,7 +27867,7 @@
         <v>2</v>
       </c>
       <c r="F1036" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G1036">
         <v>6</v>
@@ -27851,7 +27899,7 @@
         <v>2</v>
       </c>
       <c r="F1037" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G1037">
         <v>4</v>
@@ -27883,7 +27931,7 @@
         <v>1</v>
       </c>
       <c r="F1038" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G1038">
         <v>4</v>
@@ -27915,7 +27963,7 @@
         <v>2</v>
       </c>
       <c r="F1039" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G1039">
         <v>4</v>
@@ -27947,7 +27995,7 @@
         <v>2</v>
       </c>
       <c r="F1040" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G1040">
         <v>4</v>
@@ -28008,7 +28056,7 @@
         <v>2</v>
       </c>
       <c r="F1042" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G1042">
         <v>4</v>
@@ -28188,7 +28236,7 @@
         <v>4</v>
       </c>
       <c r="H1048" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="J1048">
         <v>1025</v>
@@ -28268,8 +28316,8 @@
       <c r="G1051">
         <v>6</v>
       </c>
-      <c r="H1051" s="2">
-        <v>41456</v>
+      <c r="H1051" t="s">
+        <v>27</v>
       </c>
       <c r="J1051">
         <v>1026</v>
@@ -28292,7 +28340,7 @@
         <v>6</v>
       </c>
       <c r="H1052" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="J1052">
         <v>1026</v>
@@ -28317,8 +28365,8 @@
       <c r="G1053">
         <v>6</v>
       </c>
-      <c r="H1053" s="2">
-        <v>41277</v>
+      <c r="H1053" t="s">
+        <v>29</v>
       </c>
       <c r="J1053">
         <v>1026</v>
@@ -28341,7 +28389,7 @@
         <v>6</v>
       </c>
       <c r="H1054" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="J1054">
         <v>1026</v>
@@ -28361,10 +28409,10 @@
         <v>0</v>
       </c>
       <c r="F1055" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="H1055" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="J1055">
         <v>1026</v>
@@ -28384,10 +28432,10 @@
         <v>0</v>
       </c>
       <c r="F1056" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="H1056" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="J1056">
         <v>1026</v>
@@ -28407,10 +28455,10 @@
         <v>0</v>
       </c>
       <c r="F1057" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="H1057" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="J1057">
         <v>1026</v>
@@ -28430,10 +28478,10 @@
         <v>0</v>
       </c>
       <c r="F1058" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="H1058" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="J1058">
         <v>1026</v>
@@ -28453,10 +28501,10 @@
         <v>0</v>
       </c>
       <c r="F1059" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="H1059" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="J1059">
         <v>1026</v>
@@ -28476,10 +28524,10 @@
         <v>0</v>
       </c>
       <c r="F1060" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="H1060" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="J1060">
         <v>1026</v>
@@ -28499,10 +28547,10 @@
         <v>0</v>
       </c>
       <c r="F1061" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="H1061" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="J1061">
         <v>1027</v>
@@ -28522,10 +28570,10 @@
         <v>0</v>
       </c>
       <c r="F1062" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="H1062" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="J1062">
         <v>1027</v>
@@ -28548,7 +28596,7 @@
         <v>6</v>
       </c>
       <c r="H1063" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="J1063">
         <v>1027</v>
@@ -28574,7 +28622,7 @@
         <v>6</v>
       </c>
       <c r="H1064" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="J1064">
         <v>1027</v>
@@ -28620,7 +28668,7 @@
         <v>6</v>
       </c>
       <c r="H1066" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="J1066">
         <v>1027</v>
@@ -34197,8 +34245,8 @@
       <c r="G1296">
         <v>6</v>
       </c>
-      <c r="H1296" s="2">
-        <v>41396</v>
+      <c r="H1296" t="s">
+        <v>36</v>
       </c>
       <c r="J1296">
         <v>1014</v>
@@ -34223,8 +34271,8 @@
       <c r="G1297">
         <v>6</v>
       </c>
-      <c r="H1297" s="2">
-        <v>41335</v>
+      <c r="H1297" t="s">
+        <v>37</v>
       </c>
       <c r="J1297">
         <v>1014</v>
@@ -34249,8 +34297,8 @@
       <c r="G1298">
         <v>6</v>
       </c>
-      <c r="H1298" s="2">
-        <v>41335</v>
+      <c r="H1298" t="s">
+        <v>37</v>
       </c>
       <c r="J1298">
         <v>1014</v>
@@ -34275,8 +34323,8 @@
       <c r="G1299">
         <v>6</v>
       </c>
-      <c r="H1299" s="2">
-        <v>41398</v>
+      <c r="H1299" t="s">
+        <v>38</v>
       </c>
       <c r="J1299">
         <v>1014</v>
@@ -34299,7 +34347,7 @@
         <v>6</v>
       </c>
       <c r="H1300" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="J1300">
         <v>1014</v>
@@ -34327,8 +34375,8 @@
       <c r="G1301">
         <v>6</v>
       </c>
-      <c r="H1301" s="2">
-        <v>41275</v>
+      <c r="H1301" t="s">
+        <v>40</v>
       </c>
       <c r="J1301">
         <v>1014</v>
@@ -34353,8 +34401,8 @@
       <c r="G1302">
         <v>6</v>
       </c>
-      <c r="H1302" s="2">
-        <v>41518</v>
+      <c r="H1302" t="s">
+        <v>41</v>
       </c>
       <c r="J1302">
         <v>1014</v>
@@ -34377,7 +34425,7 @@
         <v>6</v>
       </c>
       <c r="H1303" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="J1303">
         <v>1014</v>
@@ -34405,8 +34453,8 @@
       <c r="G1304">
         <v>6</v>
       </c>
-      <c r="H1304" s="2">
-        <v>41307</v>
+      <c r="H1304" t="s">
+        <v>42</v>
       </c>
       <c r="J1304">
         <v>1014</v>
@@ -34434,8 +34482,8 @@
       <c r="G1305">
         <v>6</v>
       </c>
-      <c r="H1305" s="2">
-        <v>41334</v>
+      <c r="H1305" t="s">
+        <v>43</v>
       </c>
       <c r="J1305">
         <v>1014</v>
@@ -34460,8 +34508,8 @@
       <c r="G1306">
         <v>6</v>
       </c>
-      <c r="H1306" s="2">
-        <v>41367</v>
+      <c r="H1306" t="s">
+        <v>44</v>
       </c>
       <c r="J1306">
         <v>1014</v>
@@ -36772,13 +36820,13 @@
         <v>7</v>
       </c>
       <c r="F1398" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G1398">
         <v>6</v>
       </c>
       <c r="H1398" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="J1398">
         <v>1014</v>
@@ -36804,7 +36852,7 @@
         <v>7</v>
       </c>
       <c r="F1399" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G1399">
         <v>4</v>
@@ -37375,7 +37423,7 @@
         <v>4</v>
       </c>
       <c r="F1419" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G1419">
         <v>4</v>
@@ -37436,7 +37484,7 @@
         <v>4</v>
       </c>
       <c r="F1421" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G1421">
         <v>4</v>
@@ -37468,7 +37516,7 @@
         <v>3</v>
       </c>
       <c r="F1422" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G1422">
         <v>4</v>
@@ -37500,7 +37548,7 @@
         <v>3</v>
       </c>
       <c r="F1423" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G1423">
         <v>4</v>
@@ -37532,7 +37580,7 @@
         <v>4</v>
       </c>
       <c r="F1424" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G1424">
         <v>4</v>
@@ -37564,7 +37612,7 @@
         <v>3</v>
       </c>
       <c r="F1425" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G1425">
         <v>4</v>
@@ -38098,7 +38146,7 @@
         <v>2</v>
       </c>
       <c r="F1446" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G1446">
         <v>4</v>
@@ -38130,7 +38178,7 @@
         <v>1</v>
       </c>
       <c r="F1447" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G1447">
         <v>4</v>
